--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Escritorio\project4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Escritorio\project4improved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{4A3739EF-62A6-7A47-B5E8-326C4BE794FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5BC5C5B5-8863-45A5-8401-8E8E51096126}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{4A3739EF-62A6-7A47-B5E8-326C4BE794FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A51296E6-833D-426B-BB62-14D3181410D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Explanation</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Tap targets too close</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>The links at the bottom were too close and it is too difficult for some people particularly mobile users to press only one link at a time</t>
@@ -588,16 +585,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.375" customWidth="1"/>
     <col min="5" max="5" width="43.875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -628,239 +626,253 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="3"/>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{470C4338-A20E-4A47-A4CA-270BB387BA78}"/>
-    <hyperlink ref="F19" r:id="rId2" xr:uid="{622E4359-01AC-4A28-BF37-FE27E67FB5F6}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{1E91325F-9B53-45B1-B6EC-A62A04B2E02D}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{F2548C61-3AD4-4194-AB43-23C0C5365F64}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{D5F01521-0F0D-46D0-BD62-3B665E601BC3}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{72E9A4CA-3B5F-4297-97DD-2FDCCF09A4B8}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{519DF7F6-1E1A-497B-8A3E-9A3020BC17B6}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{C7E14C7C-579E-45FE-A167-503AF0077BDA}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{5F336517-E021-4DF1-BFB1-86F00751D958}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{BF884CEE-4C78-4EF4-96CC-C934C7E09D31}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{470C4338-A20E-4A47-A4CA-270BB387BA78}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{622E4359-01AC-4A28-BF37-FE27E67FB5F6}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{1E91325F-9B53-45B1-B6EC-A62A04B2E02D}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{F2548C61-3AD4-4194-AB43-23C0C5365F64}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{D5F01521-0F0D-46D0-BD62-3B665E601BC3}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{72E9A4CA-3B5F-4297-97DD-2FDCCF09A4B8}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{519DF7F6-1E1A-497B-8A3E-9A3020BC17B6}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{C7E14C7C-579E-45FE-A167-503AF0077BDA}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{5F336517-E021-4DF1-BFB1-86F00751D958}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{BF884CEE-4C78-4EF4-96CC-C934C7E09D31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Escritorio\project4improved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{4A3739EF-62A6-7A47-B5E8-326C4BE794FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A51296E6-833D-426B-BB62-14D3181410D5}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{4A3739EF-62A6-7A47-B5E8-326C4BE794FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F0661C17-D019-49AC-80AB-B68774DD12DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Explanation</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>https://developers.google.com/web/tools/lighthouse/audits/webp</t>
+  </si>
+  <si>
+    <t>CSS and Js not minify</t>
+  </si>
+  <si>
+    <t>The use of minified code make the websites lighter and as a consequence they load faster</t>
+  </si>
+  <si>
+    <t>Minify CSS and JS</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/1306056-ensure-your-website-meets-technical-seo-requirements/6200762-keep-your-webpages-light</t>
   </si>
 </sst>
 </file>
@@ -585,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,22 +815,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,19 +838,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -846,25 +858,45 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{470C4338-A20E-4A47-A4CA-270BB387BA78}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{622E4359-01AC-4A28-BF37-FE27E67FB5F6}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{622E4359-01AC-4A28-BF37-FE27E67FB5F6}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{1E91325F-9B53-45B1-B6EC-A62A04B2E02D}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{F2548C61-3AD4-4194-AB43-23C0C5365F64}"/>
     <hyperlink ref="F5" r:id="rId5" xr:uid="{D5F01521-0F0D-46D0-BD62-3B665E601BC3}"/>
@@ -873,8 +905,9 @@
     <hyperlink ref="F9" r:id="rId8" xr:uid="{C7E14C7C-579E-45FE-A167-503AF0077BDA}"/>
     <hyperlink ref="F8" r:id="rId9" xr:uid="{5F336517-E021-4DF1-BFB1-86F00751D958}"/>
     <hyperlink ref="F10" r:id="rId10" xr:uid="{BF884CEE-4C78-4EF4-96CC-C934C7E09D31}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{F5EBAB74-1611-4AE2-98FB-F72EAFA06D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Escritorio\project4improved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{4A3739EF-62A6-7A47-B5E8-326C4BE794FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F0661C17-D019-49AC-80AB-B68774DD12DC}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{4A3739EF-62A6-7A47-B5E8-326C4BE794FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{312C606E-3F42-4A94-AFEB-6C44B0398A70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Explanation</t>
   </si>
@@ -198,9 +198,6 @@
     <t>https://developers.google.com/web/tools/lighthouse/audits/webp</t>
   </si>
   <si>
-    <t>CSS and Js not minify</t>
-  </si>
-  <si>
     <t>The use of minified code make the websites lighter and as a consequence they load faster</t>
   </si>
   <si>
@@ -208,6 +205,21 @@
   </si>
   <si>
     <t>https://openclassrooms.com/en/courses/1306056-ensure-your-website-meets-technical-seo-requirements/6200762-keep-your-webpages-light</t>
+  </si>
+  <si>
+    <t>CSS and Js not minified</t>
+  </si>
+  <si>
+    <t>No htaccess file</t>
+  </si>
+  <si>
+    <t>Htaccess file will enable the use of gzip compression and set up the browser cache</t>
+  </si>
+  <si>
+    <t>Include htaccess file enabling the gzip compression what will do our website lighter and faster and set up browser cache</t>
+  </si>
+  <si>
+    <t>https://varvy.com/pagespeed/htaccess.html</t>
   </si>
 </sst>
 </file>
@@ -597,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -818,39 +830,39 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,19 +870,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -878,25 +890,45 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{470C4338-A20E-4A47-A4CA-270BB387BA78}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{622E4359-01AC-4A28-BF37-FE27E67FB5F6}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{622E4359-01AC-4A28-BF37-FE27E67FB5F6}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{1E91325F-9B53-45B1-B6EC-A62A04B2E02D}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{F2548C61-3AD4-4194-AB43-23C0C5365F64}"/>
     <hyperlink ref="F5" r:id="rId5" xr:uid="{D5F01521-0F0D-46D0-BD62-3B665E601BC3}"/>
@@ -905,9 +937,10 @@
     <hyperlink ref="F9" r:id="rId8" xr:uid="{C7E14C7C-579E-45FE-A167-503AF0077BDA}"/>
     <hyperlink ref="F8" r:id="rId9" xr:uid="{5F336517-E021-4DF1-BFB1-86F00751D958}"/>
     <hyperlink ref="F10" r:id="rId10" xr:uid="{BF884CEE-4C78-4EF4-96CC-C934C7E09D31}"/>
-    <hyperlink ref="F11" r:id="rId11" xr:uid="{F5EBAB74-1611-4AE2-98FB-F72EAFA06D66}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{F5EBAB74-1611-4AE2-98FB-F72EAFA06D66}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{888250A5-5483-4F4E-A14E-BF0DBFFF2924}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>